--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/圣水配置_water.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/圣水配置_water.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">water!$C$2:$H$1904</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -410,52 +410,43 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1_1|2_500|3_800|4_800</t>
+    <t>每单位时间恢复圣水
+数量|秒</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1_1|2_1000|3_2000|4_2000</t>
+    <t>可容纳圣水上限</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1_1|2_5000|3_5000|4_5000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1|2_10000|3_20000|4_20000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1|2_10|3_30|4_30</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>升级消耗资源
-1-体力
-2-金币
-3-木材
-4-矿石
-5-圣水
+70001-体力
+70002-金币
+70003-木材
+70004-矿石
+70005-圣水
+70006-钻石
 以“|”号间隔
 （1_数量|2_数量|3_数量）</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1_1|2_50000|3_50000|4_50000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1|2_50000|3_50000|4_50000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>每单位时间恢复圣水
-数量|秒</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>可容纳圣水上限</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>70001_1|70002_10|70003_30|70004_30</t>
+  </si>
+  <si>
+    <t>70001_1|70002_500|70003_800|70004_800</t>
+  </si>
+  <si>
+    <t>70001_1|70002_1000|70003_2000|70004_2000</t>
+  </si>
+  <si>
+    <t>70001_1|70002_5000|70003_5000|70004_5000</t>
+  </si>
+  <si>
+    <t>70001_1|70002_10000|70003_20000|70004_20000</t>
+  </si>
+  <si>
+    <t>70001_1|70002_50000|70003_50000|70004_50000</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1126,7 @@
   <dimension ref="A1:H1925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1160,16 +1151,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>105</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="16"/>
@@ -1197,7 +1188,7 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1">
       <c r="A4" s="6">
-        <v>1</v>
+        <v>90001</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
@@ -1212,13 +1203,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1">
       <c r="A5" s="6">
-        <v>2</v>
+        <v>90002</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
@@ -1233,13 +1224,13 @@
         <v>15</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1">
       <c r="A6" s="6">
-        <v>3</v>
+        <v>90003</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -1254,13 +1245,13 @@
         <v>20</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1">
       <c r="A7" s="6">
-        <v>4</v>
+        <v>90004</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
@@ -1275,13 +1266,13 @@
         <v>30</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="6">
-        <v>5</v>
+        <v>90005</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -1296,13 +1287,13 @@
         <v>30</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="6">
-        <v>6</v>
+        <v>90006</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -1317,13 +1308,13 @@
         <v>35</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="6">
-        <v>7</v>
+        <v>90007</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -1338,13 +1329,13 @@
         <v>40</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1">
       <c r="A11" s="6">
-        <v>8</v>
+        <v>90008</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -1359,13 +1350,13 @@
         <v>45</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="6">
-        <v>9</v>
+        <v>90009</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -1380,13 +1371,13 @@
         <v>50</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1">
       <c r="A13" s="6">
-        <v>10</v>
+        <v>90010</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -1401,13 +1392,13 @@
         <v>55</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="6">
-        <v>11</v>
+        <v>90011</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -1422,13 +1413,13 @@
         <v>60</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1">
       <c r="A15" s="6">
-        <v>12</v>
+        <v>90012</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
@@ -1443,13 +1434,13 @@
         <v>65</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="6">
-        <v>13</v>
+        <v>90013</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
@@ -1464,13 +1455,13 @@
         <v>70</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1">
       <c r="A17" s="6">
-        <v>14</v>
+        <v>90014</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -1485,13 +1476,13 @@
         <v>75</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1">
       <c r="A18" s="6">
-        <v>15</v>
+        <v>90015</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -1506,13 +1497,13 @@
         <v>80</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1">
       <c r="A19" s="6">
-        <v>16</v>
+        <v>90016</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
@@ -1527,13 +1518,13 @@
         <v>85</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1">
       <c r="A20" s="6">
-        <v>17</v>
+        <v>90017</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>20</v>
@@ -1548,13 +1539,13 @@
         <v>90</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1">
       <c r="A21" s="6">
-        <v>18</v>
+        <v>90018</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -1569,13 +1560,13 @@
         <v>95</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1">
       <c r="A22" s="6">
-        <v>19</v>
+        <v>90019</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
@@ -1590,13 +1581,13 @@
         <v>100</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1">
       <c r="A23" s="6">
-        <v>20</v>
+        <v>90020</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -1611,13 +1602,13 @@
         <v>105</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1">
       <c r="A24" s="6">
-        <v>21</v>
+        <v>90021</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
@@ -1632,13 +1623,13 @@
         <v>110</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1">
       <c r="A25" s="6">
-        <v>22</v>
+        <v>90022</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>25</v>
@@ -1653,13 +1644,13 @@
         <v>115</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1">
       <c r="A26" s="6">
-        <v>23</v>
+        <v>90023</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>26</v>
@@ -1674,13 +1665,13 @@
         <v>120</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1">
       <c r="A27" s="6">
-        <v>24</v>
+        <v>90024</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>27</v>
@@ -1695,13 +1686,13 @@
         <v>125</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1">
       <c r="A28" s="6">
-        <v>25</v>
+        <v>90025</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>28</v>
@@ -1716,13 +1707,13 @@
         <v>130</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1">
       <c r="A29" s="6">
-        <v>26</v>
+        <v>90026</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>29</v>
@@ -1737,13 +1728,13 @@
         <v>135</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1">
       <c r="A30" s="6">
-        <v>27</v>
+        <v>90027</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>30</v>
@@ -1758,13 +1749,13 @@
         <v>140</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1">
       <c r="A31" s="6">
-        <v>28</v>
+        <v>90028</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>31</v>
@@ -1779,13 +1770,13 @@
         <v>145</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1">
       <c r="A32" s="6">
-        <v>29</v>
+        <v>90029</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>32</v>
@@ -1800,13 +1791,13 @@
         <v>150</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1">
       <c r="A33" s="6">
-        <v>30</v>
+        <v>90030</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>33</v>
@@ -1821,13 +1812,13 @@
         <v>155</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1">
       <c r="A34" s="6">
-        <v>31</v>
+        <v>90031</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>34</v>
@@ -1842,13 +1833,13 @@
         <v>160</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1">
       <c r="A35" s="6">
-        <v>32</v>
+        <v>90032</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>35</v>
@@ -1863,13 +1854,13 @@
         <v>165</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1">
       <c r="A36" s="6">
-        <v>33</v>
+        <v>90033</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>36</v>
@@ -1884,13 +1875,13 @@
         <v>170</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1">
       <c r="A37" s="6">
-        <v>34</v>
+        <v>90034</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>37</v>
@@ -1905,13 +1896,13 @@
         <v>175</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1">
       <c r="A38" s="6">
-        <v>35</v>
+        <v>90035</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>38</v>
@@ -1926,13 +1917,13 @@
         <v>180</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1">
       <c r="A39" s="6">
-        <v>36</v>
+        <v>90036</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>39</v>
@@ -1947,13 +1938,13 @@
         <v>185</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1">
       <c r="A40" s="6">
-        <v>37</v>
+        <v>90037</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>40</v>
@@ -1968,13 +1959,13 @@
         <v>190</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1">
       <c r="A41" s="6">
-        <v>38</v>
+        <v>90038</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>41</v>
@@ -1989,13 +1980,13 @@
         <v>195</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1">
       <c r="A42" s="6">
-        <v>39</v>
+        <v>90039</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>42</v>
@@ -2010,13 +2001,13 @@
         <v>200</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1">
       <c r="A43" s="6">
-        <v>40</v>
+        <v>90040</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>43</v>
@@ -2031,13 +2022,13 @@
         <v>205</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1">
       <c r="A44" s="6">
-        <v>41</v>
+        <v>90041</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>44</v>
@@ -2052,13 +2043,13 @@
         <v>210</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1">
       <c r="A45" s="6">
-        <v>42</v>
+        <v>90042</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>45</v>
@@ -2073,13 +2064,13 @@
         <v>215</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1">
       <c r="A46" s="6">
-        <v>43</v>
+        <v>90043</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>46</v>
@@ -2094,13 +2085,13 @@
         <v>220</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1">
       <c r="A47" s="6">
-        <v>44</v>
+        <v>90044</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>47</v>
@@ -2115,13 +2106,13 @@
         <v>225</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1">
       <c r="A48" s="6">
-        <v>45</v>
+        <v>90045</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>48</v>
@@ -2136,13 +2127,13 @@
         <v>230</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1">
       <c r="A49" s="6">
-        <v>46</v>
+        <v>90046</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>49</v>
@@ -2157,13 +2148,13 @@
         <v>235</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1">
       <c r="A50" s="6">
-        <v>47</v>
+        <v>90047</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>50</v>
@@ -2178,13 +2169,13 @@
         <v>240</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1">
       <c r="A51" s="6">
-        <v>48</v>
+        <v>90048</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>51</v>
@@ -2199,13 +2190,13 @@
         <v>245</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1">
       <c r="A52" s="6">
-        <v>49</v>
+        <v>90049</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>52</v>
@@ -2220,13 +2211,13 @@
         <v>250</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1">
       <c r="A53" s="6">
-        <v>50</v>
+        <v>90050</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>53</v>
@@ -2241,7 +2232,7 @@
         <v>255</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G53" s="21"/>
     </row>
